--- a/ExperimentalResults/RTTPositioningOneFloor.xlsx
+++ b/ExperimentalResults/RTTPositioningOneFloor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tori\Documents\Master-Thesis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tori\Documents\Master-Thesis\indoor-positioning-for-bim\ExperimentalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE389A-379A-45CC-9838-5F93FA3A27EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BC9BFD-6182-49E6-87A2-4E940018AC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32730" yWindow="3930" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{B7DFF4DF-E9BC-4E29-9811-FAE41013ECBF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B7DFF4DF-E9BC-4E29-9811-FAE41013ECBF}"/>
   </bookViews>
   <sheets>
     <sheet name="W0" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Created</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>08:b4:b1:85:4a:f5</t>
-  </si>
-  <si>
-    <t>0x0000ff</t>
   </si>
   <si>
     <t>xx</t>
@@ -3002,7 +2999,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="24">
         <v>6</v>
@@ -3035,7 +3032,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="24">
         <v>6</v>
@@ -3068,7 +3065,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="24">
         <v>6</v>
@@ -3101,7 +3098,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="24">
         <v>6</v>
@@ -3134,7 +3131,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="24">
         <v>6</v>
@@ -3167,7 +3164,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="24">
         <v>6</v>
@@ -3200,7 +3197,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="24">
         <v>6</v>
@@ -3233,7 +3230,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="24">
         <v>6</v>
@@ -3266,7 +3263,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="24">
         <v>6</v>
@@ -3299,7 +3296,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="24">
         <v>6</v>
@@ -3332,7 +3329,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="24">
         <v>6</v>
@@ -3365,7 +3362,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="24">
         <v>6</v>
@@ -3398,7 +3395,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="24">
         <v>6</v>
@@ -3431,7 +3428,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="24">
         <v>6</v>
@@ -3464,7 +3461,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="24">
         <v>6</v>
@@ -3497,7 +3494,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="24">
         <v>6</v>
@@ -3530,7 +3527,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="24">
         <v>6</v>
@@ -3563,7 +3560,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="24">
         <v>6</v>
@@ -3601,10 +3598,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B887D-7DE2-4273-BD22-BD1210F67F72}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="B2:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3612,7 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -3629,7 +3626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -3642,11 +3639,8 @@
       <c r="D2">
         <v>-351732.93748289201</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3659,11 +3653,8 @@
       <c r="D3">
         <v>-356447.89152410498</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3676,11 +3667,8 @@
       <c r="D4">
         <v>-335657.725485856</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3693,11 +3681,8 @@
       <c r="D5">
         <v>-330864.99700577703</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3710,11 +3695,8 @@
       <c r="D6">
         <v>-366209.69949084101</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3726,9 +3708,6 @@
       </c>
       <c r="D7">
         <v>-324977.11831615499</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3740,7 +3719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2EC4D5-081B-44CD-9CBD-FDA49BB4E2FC}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3830,7 +3809,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <f>AVERAGE('3DW0'!$J$2:'3DW0'!$J$19)</f>
